--- a/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Formato_Anexo1.xlsx
+++ b/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Formato_Anexo1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\armandohdz\CSIPA\CENAGAS\CENAGAS-Herramienta1\SistemaCenagas\SistemaCenagas\Plantillas\Formatos EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\armandohdz\CSIPA\CENAGAS\CENAGAS-Herramienta1\SistemaCenagas\SistemaCenagas\Plantillas\FormatosEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF5FF2-308F-444D-97A2-9C7A7E6CA777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F9307-E6EC-4893-B9AA-A38DFF2C3038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F35D5910-EE98-4DFB-8A04-F4ABA7A126B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F35D5910-EE98-4DFB-8A04-F4ABA7A126B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,61 +83,61 @@
 PROPUESTA Y ANÁLISIS DE CAMBIO</t>
   </si>
   <si>
-    <t>CLAVE</t>
-  </si>
-  <si>
-    <t>#TEMPORAL</t>
-  </si>
-  <si>
-    <t>#PERMANENTE</t>
-  </si>
-  <si>
-    <t>#FECHA</t>
-  </si>
-  <si>
-    <t>Centro de trabajo: #RESIDENCIA</t>
-  </si>
-  <si>
-    <t>Sector / Área: #SECTOR_AREA</t>
-  </si>
-  <si>
-    <t>Planta o instalación: #INSTALACION</t>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#C_0</t>
+  </si>
+  <si>
+    <t>#C_1</t>
+  </si>
+  <si>
+    <t>#C_2</t>
+  </si>
+  <si>
+    <t>#C_3</t>
+  </si>
+  <si>
+    <t>Centro de trabajo: #C_4</t>
+  </si>
+  <si>
+    <t>Sector / Área: #C_5</t>
+  </si>
+  <si>
+    <t>Planta o instalación: #C_6</t>
   </si>
   <si>
     <t>Proceso, Maquinaria o Equipo
-por modificar: #PROCESO</t>
+por modificar: #C_7</t>
   </si>
   <si>
     <t>Prestación del servicio de la
-maquinaria o equipo: #PRESTACION_SERVICIO</t>
-  </si>
-  <si>
-    <t>#DESCRIPCION:CAMBIO</t>
-  </si>
-  <si>
-    <t>#RESULTADO_ANALISIS</t>
-  </si>
-  <si>
-    <t>#PROPONENTE_CAMBIO</t>
-  </si>
-  <si>
-    <t>#RESPONSABLE_CAMBIO</t>
-  </si>
-  <si>
-    <t>#RESULTADO_PROPUESTA</t>
-  </si>
-  <si>
-    <t>#ACEPTADO</t>
-  </si>
-  <si>
-    <t>#RECHAZADO</t>
+maquinaria o equipo: #C_8</t>
+  </si>
+  <si>
+    <t>#C_9</t>
+  </si>
+  <si>
+    <t>#C_10</t>
+  </si>
+  <si>
+    <t>#C_11</t>
+  </si>
+  <si>
+    <t>#C_12</t>
+  </si>
+  <si>
+    <t>#C_14</t>
+  </si>
+  <si>
+    <t>#C_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,14 +166,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -263,10 +255,25 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -278,26 +285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,455 +614,455 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:L11"/>
+      <selection activeCell="A16" sqref="A16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1089,76 +1081,97 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="A31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="A23:F27"/>
+    <mergeCell ref="G23:L27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L15"/>
+    <mergeCell ref="A16:L17"/>
     <mergeCell ref="A1:D6"/>
     <mergeCell ref="E1:L6"/>
     <mergeCell ref="A8:L8"/>
@@ -1171,27 +1184,6 @@
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L15"/>
-    <mergeCell ref="A16:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A23:F27"/>
-    <mergeCell ref="G23:L27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Formato_Anexo1.xlsx
+++ b/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Formato_Anexo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\armandohdz\CSIPA\CENAGAS\CENAGAS-Herramienta1\SistemaCenagas\SistemaCenagas\Plantillas\FormatosEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F9307-E6EC-4893-B9AA-A38DFF2C3038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF308A6-796B-45E9-920C-68B388FF4E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F35D5910-EE98-4DFB-8A04-F4ABA7A126B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>1. Lugar para cambio propuesto</t>
   </si>
@@ -98,46 +98,61 @@
     <t>#C_3</t>
   </si>
   <si>
-    <t>Centro de trabajo: #C_4</t>
-  </si>
-  <si>
-    <t>Sector / Área: #C_5</t>
-  </si>
-  <si>
-    <t>Planta o instalación: #C_6</t>
+    <t>#C_9</t>
+  </si>
+  <si>
+    <t>#C_10</t>
+  </si>
+  <si>
+    <t>#C_11</t>
+  </si>
+  <si>
+    <t>#C_12</t>
+  </si>
+  <si>
+    <t>#C_14</t>
+  </si>
+  <si>
+    <t>#C_15</t>
+  </si>
+  <si>
+    <t>Centro de trabajo:</t>
+  </si>
+  <si>
+    <t>Sector / Área:</t>
+  </si>
+  <si>
+    <t>Planta o instalación:</t>
   </si>
   <si>
     <t>Proceso, Maquinaria o Equipo
-por modificar: #C_7</t>
+por modificar:</t>
   </si>
   <si>
     <t>Prestación del servicio de la
-maquinaria o equipo: #C_8</t>
-  </si>
-  <si>
-    <t>#C_9</t>
-  </si>
-  <si>
-    <t>#C_10</t>
-  </si>
-  <si>
-    <t>#C_11</t>
-  </si>
-  <si>
-    <t>#C_12</t>
-  </si>
-  <si>
-    <t>#C_14</t>
-  </si>
-  <si>
-    <t>#C_15</t>
+maquinaria o equipo:</t>
+  </si>
+  <si>
+    <t>#C_4</t>
+  </si>
+  <si>
+    <t>#C_5</t>
+  </si>
+  <si>
+    <t>#C_6</t>
+  </si>
+  <si>
+    <t>#C_7</t>
+  </si>
+  <si>
+    <t>#C_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +182,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -188,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -248,47 +276,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +760,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L17"/>
+      <selection activeCell="D14" sqref="D14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,555 +769,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="A23:F27"/>
-    <mergeCell ref="G23:L27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L15"/>
-    <mergeCell ref="A16:L17"/>
+  <mergeCells count="38">
     <mergeCell ref="A1:D6"/>
     <mergeCell ref="E1:L6"/>
     <mergeCell ref="A8:L8"/>
@@ -1184,7 +1319,34 @@
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:L15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A23:F27"/>
+    <mergeCell ref="G23:L27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:K32"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
